--- a/Resources/Zip_Neighborhood.xlsx
+++ b/Resources/Zip_Neighborhood.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vilas\uofo-virt-data-pt-12-2021-u-b\Data_Bootcamp_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vilas\uofo-virt-data-pt-12-2021-u-b\Data_Bootcamp_Final_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFCDD66-F05F-4DDF-B594-230E6980D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88780540-A707-4C83-83C5-D757A9DE14E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F02AFEA3-B622-4ADC-915D-AD2E9FE644BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>Ardenwald</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Far Southwest</t>
   </si>
   <si>
-    <t>Downtown Portlan</t>
-  </si>
-  <si>
     <t>Forest Park</t>
   </si>
   <si>
@@ -324,7 +321,7 @@
     <t>Zip</t>
   </si>
   <si>
-    <t>Zip 2</t>
+    <t>Downtown Portland</t>
   </si>
 </sst>
 </file>
@@ -676,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D56EE-5D56-431A-80B2-614E7B206E38}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,18 +684,15 @@
     <col min="1" max="1" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -706,7 +700,7 @@
         <v>97212</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -714,7 +708,7 @@
         <v>97217</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -722,7 +716,7 @@
         <v>97222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -730,7 +724,7 @@
         <v>97230</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -738,7 +732,7 @@
         <v>97201</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -746,7 +740,7 @@
         <v>97219</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -754,7 +748,7 @@
         <v>97219</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -762,7 +756,7 @@
         <v>97212</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -770,7 +764,7 @@
         <v>97227</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -778,7 +772,7 @@
         <v>97206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -786,7 +780,7 @@
         <v>97217</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -794,7 +788,7 @@
         <v>97221</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -802,7 +796,7 @@
         <v>97202</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -810,650 +804,593 @@
         <v>97214</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>97203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>97233</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>97213</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>97219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>97211</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>97201</v>
       </c>
-      <c r="C20">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>97202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>97219</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>97202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>97218</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>97205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>97204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>97211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>97202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>97212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>97227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B33">
+        <v>97229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>97206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>97230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>97204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
         <v>97205</v>
       </c>
-      <c r="C24">
-        <v>97204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>97212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>97213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>97217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>97221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>97216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>97230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>97239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>97201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>97210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>97212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>97213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>97239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>97201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>97202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>97217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>97212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <v>97217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>97232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59">
         <v>97211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>97202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
         <v>97212</v>
       </c>
-      <c r="C27">
-        <v>97227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>97229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>97206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>97203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>97230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>97204</v>
-      </c>
-      <c r="C33">
-        <v>97205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>97212</v>
-      </c>
-      <c r="C34">
-        <v>97213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>97217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>97221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>97216</v>
-      </c>
-      <c r="C37">
-        <v>97230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>97239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>97201</v>
-      </c>
-      <c r="C39">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61">
+        <v>97232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63">
+        <v>97266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64">
         <v>97210</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>97212</v>
-      </c>
-      <c r="C41">
-        <v>97213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>97239</v>
-      </c>
-      <c r="C42">
-        <v>97201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>97202</v>
-      </c>
-      <c r="C43">
-        <v>97214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>97217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>97212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>97217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <v>97231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
         <v>97232</v>
       </c>
-      <c r="C47">
-        <v>97214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>97211</v>
-      </c>
-      <c r="C48">
-        <v>97212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>97232</v>
-      </c>
-      <c r="C49">
-        <v>97214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>97266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>97210</v>
-      </c>
-      <c r="C51">
-        <v>97231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>51</v>
-      </c>
-      <c r="B52">
-        <v>97232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>97220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>97216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>97213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>97206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>97215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>97219</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>97210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>97229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64">
-        <v>97296</v>
-      </c>
-      <c r="C64">
-        <v>97210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>97209</v>
-      </c>
-      <c r="C65">
-        <v>97204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>97227</v>
-      </c>
-      <c r="C66">
-        <v>97217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>65</v>
       </c>
       <c r="B67">
         <v>97220</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B68">
-        <v>97220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B69">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71">
+        <v>97216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72">
+        <v>97213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73">
+        <v>97206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74">
+        <v>97215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76">
+        <v>97210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77">
+        <v>97229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78">
         <v>97209</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>97217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>97236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>97203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>97236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>97202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>97214</v>
-      </c>
-      <c r="C75">
-        <v>97206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>97213</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>97213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>97230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B79">
-        <v>97211</v>
-      </c>
-      <c r="C79">
-        <v>97212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>97204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B80">
-        <v>97202</v>
+        <v>97227</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B81">
-        <v>97219</v>
+        <v>97217</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B82">
-        <v>97206</v>
+        <v>97220</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B83">
-        <v>97201</v>
+        <v>97220</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B84">
-        <v>97203</v>
+        <v>97209</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B85">
-        <v>97232</v>
+        <v>97217</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B86">
-        <v>97220</v>
+        <v>97236</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="B87">
-        <v>97214</v>
+        <v>97296</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>97221</v>
+        <v>97210</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B89">
         <v>97203</v>
@@ -1461,53 +1398,208 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B90">
-        <v>97211</v>
+        <v>97236</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B91">
-        <v>97219</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B92">
-        <v>97230</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B93">
-        <v>97220</v>
+        <v>97206</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B94">
-        <v>97211</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B95">
+        <v>97213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96">
+        <v>97230</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97">
+        <v>97211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98">
+        <v>97212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99">
+        <v>97202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101">
         <v>97206</v>
       </c>
     </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102">
+        <v>97201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>97203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104">
+        <v>97232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105">
+        <v>97220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107">
+        <v>97221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108">
+        <v>97203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109">
+        <v>97211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>97219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111">
+        <v>97230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112">
+        <v>97220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113">
+        <v>97211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114">
+        <v>97206</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B114">
+    <sortCondition ref="A2:A114"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Resources/Zip_Neighborhood.xlsx
+++ b/Resources/Zip_Neighborhood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vilas\uofo-virt-data-pt-12-2021-u-b\Data_Bootcamp_Final_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88780540-A707-4C83-83C5-D757A9DE14E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2011FE-506B-47C4-A016-0849E9922391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F02AFEA3-B622-4ADC-915D-AD2E9FE644BC}"/>
   </bookViews>
@@ -34,20 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Ardenwald</t>
   </si>
   <si>
-    <t>Corbett Terwilliger Lair Hill</t>
-  </si>
-  <si>
     <t>Crestwood</t>
   </si>
   <si>
-    <t>Portland Northwest Industrial</t>
-  </si>
-  <si>
     <t>Alameda</t>
   </si>
   <si>
@@ -66,15 +60,9 @@
     <t>Brooklyn</t>
   </si>
   <si>
-    <t>Buckman</t>
-  </si>
-  <si>
     <t>Centennial</t>
   </si>
   <si>
-    <t>Center</t>
-  </si>
-  <si>
     <t>Concordia</t>
   </si>
   <si>
@@ -96,21 +84,12 @@
     <t>Arnold Creek</t>
   </si>
   <si>
-    <t>Ash Creek</t>
-  </si>
-  <si>
-    <t>Beaumont Wilshire</t>
-  </si>
-  <si>
     <t>Brentwood Darlington</t>
   </si>
   <si>
     <t>Collins View</t>
   </si>
   <si>
-    <t>Creston Kenilworth</t>
-  </si>
-  <si>
     <t>East Columbia</t>
   </si>
   <si>
@@ -144,9 +123,6 @@
     <t>Hazelwood</t>
   </si>
   <si>
-    <t>Healy Heights</t>
-  </si>
-  <si>
     <t>Hillsdale</t>
   </si>
   <si>
@@ -159,9 +135,6 @@
     <t>Homestead</t>
   </si>
   <si>
-    <t>Hosford Abernethy</t>
-  </si>
-  <si>
     <t>Humboldt</t>
   </si>
   <si>
@@ -186,9 +159,6 @@
     <t>Linnton</t>
   </si>
   <si>
-    <t>Lloyd District</t>
-  </si>
-  <si>
     <t>Madison South</t>
   </si>
   <si>
@@ -207,9 +177,6 @@
     <t>Montavilla</t>
   </si>
   <si>
-    <t>Mt Scott Arleta</t>
-  </si>
-  <si>
     <t>Mt Tabor</t>
   </si>
   <si>
@@ -222,9 +189,6 @@
     <t>Northwest Heights</t>
   </si>
   <si>
-    <t>Old Town Chinatown</t>
-  </si>
-  <si>
     <t>Overlook</t>
   </si>
   <si>
@@ -234,9 +198,6 @@
     <t>Parkrose</t>
   </si>
   <si>
-    <t>Pearl District</t>
-  </si>
-  <si>
     <t>Piedmont</t>
   </si>
   <si>
@@ -246,9 +207,6 @@
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Powellhurst Gilbert</t>
-  </si>
-  <si>
     <t>Reed</t>
   </si>
   <si>
@@ -267,9 +225,6 @@
     <t>Sabin</t>
   </si>
   <si>
-    <t>Sellwood Moreland</t>
-  </si>
-  <si>
     <t>South Burlingame</t>
   </si>
   <si>
@@ -279,21 +234,12 @@
     <t>Southwest Hills</t>
   </si>
   <si>
-    <t>St. Johns</t>
-  </si>
-  <si>
-    <t>Sullivans Gulch</t>
-  </si>
-  <si>
     <t>Sumner</t>
   </si>
   <si>
     <t>Sunnyside</t>
   </si>
   <si>
-    <t>Sylvan Highlands</t>
-  </si>
-  <si>
     <t>University Park</t>
   </si>
   <si>
@@ -321,7 +267,58 @@
     <t>Zip</t>
   </si>
   <si>
-    <t>Downtown Portland</t>
+    <t>Ashcreek</t>
+  </si>
+  <si>
+    <t>Beaumont-Wilshire</t>
+  </si>
+  <si>
+    <t>Buckman East</t>
+  </si>
+  <si>
+    <t>Buckman West</t>
+  </si>
+  <si>
+    <t>Creston-Kenilworth</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Hosford-Abernethy</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Mt Scott-Arleta</t>
+  </si>
+  <si>
+    <t>Northwest Industrial</t>
+  </si>
+  <si>
+    <t>Old Town/Chinatown</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Powellhurst-Gilbert</t>
+  </si>
+  <si>
+    <t>Sellwood-Moreland</t>
+  </si>
+  <si>
+    <t>South Portland</t>
+  </si>
+  <si>
+    <t>St Johns</t>
+  </si>
+  <si>
+    <t>Sullivan's Gulch</t>
+  </si>
+  <si>
+    <t>Sylvan-Highlands</t>
   </si>
 </sst>
 </file>
@@ -357,8 +354,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894D56EE-5D56-431A-80B2-614E7B206E38}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,15 +684,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>97212</v>
@@ -702,7 +700,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>97217</v>
@@ -718,7 +716,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>97230</v>
@@ -726,7 +724,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>97201</v>
@@ -734,7 +732,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>97219</v>
@@ -742,7 +740,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>97219</v>
@@ -750,7 +748,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>97212</v>
@@ -758,7 +756,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>97227</v>
@@ -766,7 +764,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>97206</v>
@@ -774,7 +772,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>97217</v>
@@ -782,7 +780,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>97221</v>
@@ -790,7 +788,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>97202</v>
@@ -798,7 +796,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>97214</v>
@@ -806,31 +804,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>97203</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>97233</v>
+        <v>97203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>97213</v>
+        <v>97233</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>97219</v>
@@ -838,7 +836,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>97211</v>
@@ -846,10 +844,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>97201</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,255 +860,255 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>97202</v>
+        <v>97218</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B24">
-        <v>97219</v>
+        <v>97205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>97218</v>
+        <v>97204</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>97205</v>
+        <v>97211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>97204</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>97211</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>97202</v>
+        <v>97227</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>97212</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>97227</v>
+        <v>97229</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>97219</v>
+        <v>97206</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>97229</v>
+        <v>97230</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>97206</v>
+        <v>97204</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>97230</v>
+        <v>97205</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>97204</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>97205</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>97212</v>
+        <v>97217</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>97213</v>
+        <v>97221</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>97217</v>
+        <v>97216</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>97221</v>
+        <v>97230</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42">
-        <v>97216</v>
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1">
+        <v>97239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>97230</v>
+        <v>97201</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>97239</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>97201</v>
+        <v>97210</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>97219</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B47">
-        <v>97210</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>97212</v>
+        <v>97239</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B49">
-        <v>97213</v>
+        <v>97201</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B50">
-        <v>97239</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B51">
-        <v>97201</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B52">
-        <v>97202</v>
+        <v>97217</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>97214</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>97217</v>
@@ -1118,111 +1116,111 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B55">
-        <v>97212</v>
+        <v>97232</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>97217</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B57">
-        <v>97232</v>
+        <v>97211</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B58">
-        <v>97214</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B59">
-        <v>97211</v>
+        <v>97232</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B60">
-        <v>97212</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B61">
-        <v>97232</v>
+        <v>97266</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>97214</v>
+        <v>97210</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>97266</v>
+        <v>97231</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B64">
-        <v>97210</v>
+        <v>97232</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B65">
-        <v>97231</v>
+        <v>97220</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>97232</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B67">
-        <v>97220</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B68">
         <v>97219</v>
@@ -1230,79 +1228,79 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B69">
-        <v>97219</v>
+        <v>97216</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B70">
-        <v>97219</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B71">
-        <v>97216</v>
+        <v>97206</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B72">
-        <v>97213</v>
+        <v>97215</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B73">
-        <v>97206</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B74">
-        <v>97215</v>
+        <v>97210</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B75">
-        <v>97219</v>
+        <v>97229</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>60</v>
+      <c r="A76" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B76">
+        <v>97296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77">
         <v>97210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77">
-        <v>97229</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>97209</v>
@@ -1310,7 +1308,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B79">
         <v>97204</v>
@@ -1318,7 +1316,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>97227</v>
@@ -1326,7 +1324,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B81">
         <v>97217</v>
@@ -1334,7 +1332,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B82">
         <v>97220</v>
@@ -1342,7 +1340,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B83">
         <v>97220</v>
@@ -1350,7 +1348,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>97209</v>
@@ -1358,7 +1356,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>97217</v>
@@ -1366,7 +1364,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B86">
         <v>97236</v>
@@ -1374,119 +1372,119 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B87">
-        <v>97296</v>
+        <v>97203</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>97210</v>
+        <v>97236</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B89">
-        <v>97203</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B90">
-        <v>97236</v>
+        <v>97214</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B91">
-        <v>97202</v>
+        <v>97206</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B92">
-        <v>97214</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B93">
-        <v>97206</v>
+        <v>97213</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B94">
-        <v>97213</v>
+        <v>97230</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B95">
-        <v>97213</v>
+        <v>97211</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B96">
-        <v>97230</v>
+        <v>97212</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <v>97211</v>
+        <v>97202</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B98">
-        <v>97212</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99">
-        <v>97202</v>
+      <c r="A99" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="1">
+        <v>97201</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100">
+      <c r="A100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="1">
         <v>97219</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B101">
         <v>97206</v>
@@ -1494,7 +1492,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B102">
         <v>97201</v>
@@ -1502,7 +1500,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <v>97203</v>
@@ -1510,7 +1508,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>97232</v>
@@ -1518,7 +1516,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <v>97220</v>
@@ -1526,7 +1524,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B106">
         <v>97214</v>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B107">
         <v>97221</v>
@@ -1542,7 +1540,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B108">
         <v>97203</v>
@@ -1550,7 +1548,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B109">
         <v>97211</v>
@@ -1558,7 +1556,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B110">
         <v>97219</v>
@@ -1566,7 +1564,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B111">
         <v>97230</v>
@@ -1574,7 +1572,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B112">
         <v>97220</v>
@@ -1582,7 +1580,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>97211</v>
@@ -1590,15 +1588,21 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B114">
         <v>97206</v>
       </c>
     </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B114">
-    <sortCondition ref="A2:A114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B117">
+    <sortCondition ref="A2:A117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
